--- a/parts_list.xlsx
+++ b/parts_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uly\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D966E7B-6613-433A-A00C-84955097F541}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFF0CAF-1197-4B73-B485-CF9CB496CA30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{398A607B-53E3-441D-8BE2-C3C6C0206754}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Parts List</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>it delivers acceptable results</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>100uF Cap 25V</t>
   </si>
 </sst>
 </file>
@@ -429,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6332DF3D-38EC-4F5A-9F92-59746F7A411C}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,20 +512,20 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -527,7 +533,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -535,19 +541,27 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
+      <c r="B14" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
